--- a/slide19/data/rozpodil_2013_2018.xlsx
+++ b/slide19/data/rozpodil_2013_2018.xlsx
@@ -764,22 +764,22 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>5599664794.639999</v>
+        <v>4737632475.020004</v>
       </c>
       <c r="C15">
-        <v>5355766330.48999</v>
+        <v>4540680136.599991</v>
       </c>
       <c r="D15">
-        <v>10905009959.12001</v>
+        <v>9663617283.840012</v>
       </c>
       <c r="E15">
-        <v>152195704133.97</v>
+        <v>8150432247.869995</v>
       </c>
       <c r="F15">
-        <v>145534848367.42</v>
+        <v>10033588887.41</v>
       </c>
       <c r="G15">
-        <v>163470340446.34</v>
+        <v>11675599939.13</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -790,19 +790,19 @@
         <v>2834020320.929993</v>
       </c>
       <c r="C16">
-        <v>51125041428.17998</v>
+        <v>3148321279.169975</v>
       </c>
       <c r="D16">
-        <v>90802724660.08</v>
+        <v>6297372538.949997</v>
       </c>
       <c r="E16">
-        <v>107262226167.95</v>
+        <v>11468040566.61</v>
       </c>
       <c r="F16">
-        <v>123523992208.41</v>
+        <v>13067891106.15004</v>
       </c>
       <c r="G16">
-        <v>132055256997.94</v>
+        <v>16624073040.77997</v>
       </c>
     </row>
   </sheetData>

--- a/slide19/data/rozpodil_2013_2018.xlsx
+++ b/slide19/data/rozpodil_2013_2018.xlsx
@@ -471,16 +471,16 @@
         <v>63657335233.16</v>
       </c>
       <c r="D2">
-        <v>96301252330.18001</v>
+        <v>96369654193.75003</v>
       </c>
       <c r="E2">
-        <v>121392096361.35</v>
+        <v>122111394697.7</v>
       </c>
       <c r="F2">
-        <v>146494899740.63</v>
+        <v>147753606251.96</v>
       </c>
       <c r="G2">
-        <v>190752602768.97</v>
+        <v>192557578687.93</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -540,16 +540,16 @@
         <v>32153912772.02</v>
       </c>
       <c r="D5">
-        <v>32782923655.2</v>
+        <v>32832724656.32</v>
       </c>
       <c r="E5">
-        <v>21354016684.37</v>
+        <v>21407188850.67</v>
       </c>
       <c r="F5">
-        <v>35066467159.86</v>
+        <v>35170328144.85</v>
       </c>
       <c r="G5">
-        <v>50624032558.98</v>
+        <v>50949672477.67999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -563,16 +563,16 @@
         <v>2215014980.12</v>
       </c>
       <c r="D6">
-        <v>2426025418.11</v>
+        <v>2660242223.58</v>
       </c>
       <c r="E6">
-        <v>2655424994.090001</v>
+        <v>2767847235.880001</v>
       </c>
       <c r="F6">
-        <v>4213371103.870001</v>
+        <v>4458392700.120001</v>
       </c>
       <c r="G6">
-        <v>6336260368.659998</v>
+        <v>7193884223.759998</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -664,7 +664,7 @@
         <v>19301234522.23</v>
       </c>
       <c r="G10">
-        <v>26482593749.91</v>
+        <v>27889390137.96</v>
       </c>
     </row>
     <row r="11" spans="1:7">
